--- a/Employee Data/PASSPORT_EXPIRED_STATUS.xlsx
+++ b/Employee Data/PASSPORT_EXPIRED_STATUS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Employee Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570EF21B-DD1B-4218-97E9-61D2FE3CE3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7636BC-76A9-405E-ADE5-A989315E3633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B52C8B97-A5EC-5C45-A769-A0F3D3DD4086}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>NAME</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Nataionalty</t>
   </si>
   <si>
-    <t>Informed to Logistics on 27th feb</t>
-  </si>
-  <si>
     <t>Yasir Khan</t>
   </si>
   <si>
@@ -115,20 +112,29 @@
     <t>Gopal Mangi</t>
   </si>
   <si>
-    <t>N0055001</t>
-  </si>
-  <si>
     <t>INDIA</t>
   </si>
   <si>
-    <t>Informed at 17 march</t>
+    <t>Sonu</t>
+  </si>
+  <si>
+    <t>To Pick Passport</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Ray Sunil</t>
+  </si>
+  <si>
+    <t>Nepal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,11 +173,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -190,7 +191,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,18 +212,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -240,21 +235,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -264,17 +244,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -308,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -317,91 +286,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -723,258 +661,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646D3CE3-3021-5A4E-B3F8-2D54A587E4BC}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.296875" customWidth="1"/>
-    <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.296875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="12"/>
-      <c r="B1" s="41" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1">
+      <c r="A1" s="9"/>
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:11" ht="16.05" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+    <row r="2" spans="1:9" ht="16.05" customHeight="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:9" ht="18">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.8">
-      <c r="A4" s="16">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="17">
-        <v>2809</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8">
-      <c r="A5" s="16">
+      <c r="B4" s="13">
+        <v>3159</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>550870830</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="17">
-        <v>3782</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="20">
-        <v>45711</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.8">
-      <c r="A6" s="16">
-        <v>3</v>
-      </c>
-      <c r="B6" s="17">
-        <v>4133</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="17">
-        <v>508909282</v>
-      </c>
-      <c r="E6" s="20">
-        <v>45782</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="34">
-        <v>5</v>
-      </c>
-      <c r="B8" s="34">
-        <v>3122</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="37">
-        <v>6</v>
-      </c>
-      <c r="B9" s="38">
-        <v>4240</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="38">
-        <v>571572167</v>
-      </c>
-      <c r="E9" s="39">
-        <v>45825</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="40">
-        <v>7</v>
-      </c>
-      <c r="B10" s="38">
-        <v>2996</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="38" t="s">
+      <c r="B5" s="13">
+        <v>1916</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>546395231</v>
+      </c>
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:9">
       <c r="D13"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:9">
       <c r="D14"/>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:9">
       <c r="D15"/>
       <c r="G15" s="3"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:9">
       <c r="D16"/>
     </row>
     <row r="17" spans="4:4">
@@ -1002,10 +826,8 @@
       <c r="D24"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B1:E2"/>
-    <mergeCell ref="G3:I7"/>
-    <mergeCell ref="G8:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1021,32 +843,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="21" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="21" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.796875" style="21"/>
+    <col min="1" max="1" width="6.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="13" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="13" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.796875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="22"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="6" t="s">
@@ -1069,163 +891,163 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="18">
-      <c r="A4" s="23">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="16">
         <v>2809</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="23">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="16">
         <v>3782</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="18">
         <v>45711</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18">
-      <c r="A6" s="23">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="16">
         <v>4133</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="16">
         <v>508909282</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="18">
         <v>45782</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18">
-      <c r="A7" s="23">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="16">
         <v>3108</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="16">
         <v>539775886</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="18">
         <v>45842</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18">
-      <c r="A8" s="23">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="15">
         <v>3159</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="20">
         <v>45741</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18">
-      <c r="A9" s="23">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="21">
         <v>3122</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="E9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="F9" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18">
+      <c r="A10" s="15">
+        <v>7</v>
+      </c>
+      <c r="B10" s="24">
+        <v>4240</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="23">
-        <v>7</v>
-      </c>
-      <c r="B10" s="32">
-        <v>4240</v>
-      </c>
-      <c r="C10" s="32" t="s">
+      <c r="D10" s="24">
+        <v>571572167</v>
+      </c>
+      <c r="E10" s="25">
+        <v>45825</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="32">
-        <v>571572167</v>
-      </c>
-      <c r="E10" s="33">
-        <v>45825</v>
-      </c>
-      <c r="F10" s="29" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="18">
+      <c r="A11" s="15">
+        <v>8</v>
+      </c>
+      <c r="B11" s="24">
+        <v>2996</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="18">
-      <c r="A11" s="23">
-        <v>8</v>
-      </c>
-      <c r="B11" s="32">
-        <v>2996</v>
-      </c>
-      <c r="C11" s="32" t="s">
+      <c r="D11" s="24">
+        <v>575372402</v>
+      </c>
+      <c r="E11" s="25">
+        <v>45809</v>
+      </c>
+      <c r="F11" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" s="32">
-        <v>575372402</v>
-      </c>
-      <c r="E11" s="33">
-        <v>45809</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Employee Data/PASSPORT_EXPIRED_STATUS.xlsx
+++ b/Employee Data/PASSPORT_EXPIRED_STATUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7636BC-76A9-405E-ADE5-A989315E3633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6D52B3-701B-45DF-8037-0B406A916AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B52C8B97-A5EC-5C45-A769-A0F3D3DD4086}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>NAME</t>
   </si>
@@ -115,19 +115,43 @@
     <t>INDIA</t>
   </si>
   <si>
-    <t>Sonu</t>
-  </si>
-  <si>
     <t>To Pick Passport</t>
   </si>
   <si>
-    <t>Indian</t>
-  </si>
-  <si>
     <t>Ray Sunil</t>
   </si>
   <si>
     <t>Nepal</t>
+  </si>
+  <si>
+    <t>Sham shad shek</t>
+  </si>
+  <si>
+    <t>Being Expired</t>
+  </si>
+  <si>
+    <t>Naresh Mahra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/08/2025 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adil </t>
+  </si>
+  <si>
+    <t>26/1/2026</t>
+  </si>
+  <si>
+    <t>Murad</t>
+  </si>
+  <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t>Vijay Jumar sah</t>
+  </si>
+  <si>
+    <t>15/12/2025</t>
   </si>
 </sst>
 </file>
@@ -664,7 +688,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -721,16 +745,14 @@
         <v>1</v>
       </c>
       <c r="B4" s="13">
-        <v>3159</v>
+        <v>2906</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4">
-        <v>550870830</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D4"/>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -744,29 +766,97 @@
         <v>1916</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>546395231</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="D6"/>
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4155</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>530509672</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="D7"/>
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13">
+        <v>4444</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7">
+        <v>543897852</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="D8"/>
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13">
+        <v>3782</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>575966297</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="D9"/>
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13">
+        <v>4171</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>556036167</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="D10"/>
